--- a/biology/Zoologie/Aulonogyrus/Aulonogyrus.xlsx
+++ b/biology/Zoologie/Aulonogyrus/Aulonogyrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulonogyrus est un genre de Gyrinidae qui est représenté par deux espèces en Europe : Aulonogyrus concinnus et Aulonogyrus striatus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces petits coléoptères dulçaquicoles sont glabres avec le bord du corps jaune, ainsi que les pattes. Les élytres sont recouverts de onze stries longitudinales.
 Les larves diffèrent du genre Gyrinus, car entre autres leur corps allongé est plus large avec un diamètre plus rond.
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aulonogyrus abdominalis (Aubé, 1838)
 Aulonogyrus abyssinicus Régimbart, 1883
